--- a/idis/expdata/10050.xlsx
+++ b/idis/expdata/10050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{689F17A8-E3D5-E345-8118-2A1A3CB6D9B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0795F9-6295-194A-8FF0-4385882AD336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>col</t>
   </si>
@@ -57,9 +57,6 @@
     <t>lepton beam</t>
   </si>
   <si>
-    <t>current</t>
-  </si>
-  <si>
     <t>stat_u</t>
   </si>
   <si>
@@ -79,6 +76,15 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>scaled</t>
+  </si>
+  <si>
+    <t>stat_scaled</t>
+  </si>
+  <si>
+    <t>syst_scaled</t>
   </si>
 </sst>
 </file>
@@ -472,21 +478,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="8" width="8.33203125" style="1" customWidth="1"/>
-    <col min="9" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="2" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="8" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="12" max="1027" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,317 +506,354 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="C2">
+        <v>2.73</v>
+      </c>
+      <c r="D2">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="E2">
+        <f>D2/2</f>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J2">
+        <f>I2/2</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K2">
+        <v>0.01</v>
+      </c>
+      <c r="L2">
+        <f>K2/2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M2">
+        <f>E2*0.0055</f>
+        <v>4.7437499999999997E-3</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C3">
+        <v>3.15</v>
+      </c>
+      <c r="D3">
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="0">D3/2</f>
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>0.17</v>
-      </c>
-      <c r="C2">
-        <v>2.4180999999999999</v>
-      </c>
-      <c r="D2">
-        <v>0.86914999999999998</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>3.3500000000000001E-3</v>
-      </c>
-      <c r="J2">
-        <v>4.8500000000000001E-3</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K9" si="0">D2*0.008</f>
-        <v>6.9531999999999997E-3</v>
+      <c r="I3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="1">I3/2</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="2">K3/2</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M8" si="3">E3*0.0055</f>
+        <v>4.6667499999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.255</v>
+      </c>
+      <c r="C4">
+        <v>3.57</v>
+      </c>
+      <c r="D4">
+        <v>1.6739999999999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0.19</v>
-      </c>
-      <c r="C3">
-        <v>2.7206999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.86609999999999998</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="J3">
-        <v>4.5500000000000002E-3</v>
-      </c>
-      <c r="K3">
+      <c r="I4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="K4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>4.6035E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="C5">
+        <v>3.99</v>
+      </c>
+      <c r="D5">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>6.9287999999999997E-3</v>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K5">
+        <v>0.01</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>4.5539999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.315</v>
+      </c>
+      <c r="C6">
+        <v>4.41</v>
+      </c>
+      <c r="D6">
+        <v>1.629</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.8145</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>0.22</v>
-      </c>
-      <c r="C4">
-        <v>3.0996000000000001</v>
-      </c>
-      <c r="D4">
-        <v>0.8528</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="6">
-        <v>20</v>
-      </c>
-      <c r="I4">
-        <v>2.5500000000000002E-3</v>
-      </c>
-      <c r="J4">
-        <v>4.3E-3</v>
-      </c>
-      <c r="K4">
+      <c r="I6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K6">
+        <v>0.01</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>4.4797499999999994E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="C7">
+        <v>4.83</v>
+      </c>
+      <c r="D7">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>6.8224000000000002E-3</v>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="K7">
+        <v>0.01</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>4.3670000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.375</v>
+      </c>
+      <c r="C8">
+        <v>5.25</v>
+      </c>
+      <c r="D8">
+        <v>1.544</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>0.25</v>
-      </c>
-      <c r="C5">
-        <v>3.4819</v>
-      </c>
-      <c r="D5">
-        <v>0.8387</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="6">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>3.15E-3</v>
-      </c>
-      <c r="J5">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>6.7096000000000005E-3</v>
+      <c r="I8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="K8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>4.2459999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C6">
-        <v>4.0202</v>
-      </c>
-      <c r="D6">
-        <v>0.82064999999999999</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="J6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>6.5652000000000002E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.32</v>
-      </c>
-      <c r="C7">
-        <v>4.5026999999999999</v>
-      </c>
-      <c r="D7">
-        <v>0.80940000000000001</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="6">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>3.8500000000000001E-3</v>
-      </c>
-      <c r="J7">
-        <v>4.2500000000000003E-3</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>6.4752000000000004E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0.34</v>
-      </c>
-      <c r="C8">
-        <v>4.9059999999999997</v>
-      </c>
-      <c r="D8">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="6">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J8">
-        <v>4.3499999999999997E-3</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>6.3680000000000004E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0.38</v>
-      </c>
-      <c r="C9">
-        <v>5.3173000000000004</v>
-      </c>
-      <c r="D9">
-        <v>0.76449999999999996</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="6">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="J9">
-        <v>4.6499999999999996E-3</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>6.1159999999999999E-3</v>
-      </c>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/idis/expdata/10050.xlsx
+++ b/idis/expdata/10050.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0795F9-6295-194A-8FF0-4385882AD336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF42468D-E7CB-E045-86C4-5656755B7CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>*norm_c</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>syst_scaled</t>
+  </si>
+  <si>
+    <t>syst_c</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -506,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -521,24 +521,24 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0.19500000000000001</v>
@@ -554,13 +554,13 @@
         <v>0.86250000000000004</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="I2">
         <v>5.0000000000000001E-3</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.22500000000000001</v>
@@ -599,13 +599,13 @@
         <v>0.84850000000000003</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="I3">
         <v>5.0000000000000001E-3</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0.255</v>
@@ -644,13 +644,13 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="I4">
         <v>7.0000000000000001E-3</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0.28499999999999998</v>
@@ -689,13 +689,13 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="I5">
         <v>8.0000000000000002E-3</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0.315</v>
@@ -734,13 +734,13 @@
         <v>0.8145</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="I6">
         <v>8.0000000000000002E-3</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.34499999999999997</v>
@@ -779,13 +779,13 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="I7">
         <v>8.9999999999999993E-3</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0.375</v>
@@ -824,13 +824,13 @@
         <v>0.77200000000000002</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="I8">
         <v>1.2999999999999999E-2</v>

--- a/idis/expdata/10050.xlsx
+++ b/idis/expdata/10050.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF42468D-E7CB-E045-86C4-5656755B7CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA8DFAF-2784-034D-80C9-7236350A6E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>syst_scaled</t>
   </si>
   <si>
-    <t>syst_c</t>
+    <t>syst_u</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
